--- a/Data/Processed/Angiosperms/missing_powo_ipni/Ochnaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Ochnaceae.xlsx
@@ -1752,7 +1752,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8286,7 +8286,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -8759,7 +8759,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -8902,7 +8902,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10805,7 +10805,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -11366,7 +11366,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13764,7 +13764,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -14897,7 +14897,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -15205,7 +15205,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -15953,7 +15953,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -16041,7 +16041,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -16569,7 +16569,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -18472,7 +18472,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -19110,7 +19110,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -19253,7 +19253,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -19946,7 +19946,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -20529,7 +20529,7 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -20837,7 +20837,7 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -20925,7 +20925,7 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -21013,7 +21013,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -21101,7 +21101,7 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -21189,7 +21189,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -21277,7 +21277,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -21750,7 +21750,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -21838,7 +21838,7 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -22201,7 +22201,7 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -22344,7 +22344,7 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -22487,7 +22487,7 @@
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -22575,7 +22575,7 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -22663,7 +22663,7 @@
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -22751,7 +22751,7 @@
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -22839,7 +22839,7 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -23092,7 +23092,7 @@
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -23180,7 +23180,7 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -23268,7 +23268,7 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -23356,7 +23356,7 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -23444,7 +23444,7 @@
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -23697,7 +23697,7 @@
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -23785,7 +23785,7 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -23873,7 +23873,7 @@
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -23961,7 +23961,7 @@
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -24049,7 +24049,7 @@
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -24247,7 +24247,7 @@
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -24335,7 +24335,7 @@
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -24478,7 +24478,7 @@
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -24621,7 +24621,7 @@
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -26194,7 +26194,7 @@
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -26447,7 +26447,7 @@
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -26535,7 +26535,7 @@
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -26788,7 +26788,7 @@
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
@@ -26798,7 +26798,7 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recueil Trav. Bot. Néerl. 10: 354. 1914 </t>
+          <t>Recueil Trav. Bot. Néerl. 10: 354. 1914</t>
         </is>
       </c>
       <c r="J443" t="b">
@@ -26866,7 +26866,7 @@
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
@@ -26876,7 +26876,7 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t xml:space="preserve">Floral. Mont. 274, tab. 182. 1928 </t>
+          <t>Floral. Mont. 274, tab. 182. 1928</t>
         </is>
       </c>
       <c r="J444" t="b">
@@ -26944,7 +26944,7 @@
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H445" t="inlineStr">
@@ -26954,7 +26954,7 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Sci. Nat., Bot. sér. 8, 16: 273. 1902 </t>
+          <t>Ann. Sci. Nat., Bot. sér. 8, 16: 273. 1902</t>
         </is>
       </c>
       <c r="J445" t="b">
@@ -27022,7 +27022,7 @@
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
@@ -27032,7 +27032,7 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Sci. Acad. Imp. Sci. Saint-Pétersbourg 1(15): 116 (1836). </t>
+          <t>Bull. Sci. Acad. Imp. Sci. Saint-Pétersbourg 1(15): 116 (1836).</t>
         </is>
       </c>
       <c r="J446" t="b">
@@ -27100,7 +27100,7 @@
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
@@ -27110,7 +27110,7 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Sci. Acad. Imp. Sci. Saint-Pétersbourg 1(15): 116 (1836). </t>
+          <t>Bull. Sci. Acad. Imp. Sci. Saint-Pétersbourg 1(15): 116 (1836).</t>
         </is>
       </c>
       <c r="J447" t="b">
@@ -27178,7 +27178,7 @@
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">
@@ -27188,7 +27188,7 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Sci. Nat., Bot. sér. 8, 19: 5. 1904 </t>
+          <t>Ann. Sci. Nat., Bot. sér. 8, 19: 5. 1904</t>
         </is>
       </c>
       <c r="J448" t="b">
@@ -27256,7 +27256,7 @@
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
@@ -27266,7 +27266,7 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Sci. Nat., Bot. sér. 8, 19: 4. 1904 </t>
+          <t>Ann. Sci. Nat., Bot. sér. 8, 19: 4. 1904</t>
         </is>
       </c>
       <c r="J449" t="b">
@@ -27334,7 +27334,7 @@
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
@@ -27344,7 +27344,7 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nat. Pflanzenfam., ed. 2 [Engler &amp; Prantl] 21: 86. 1925 </t>
+          <t>Nat. Pflanzenfam., ed. 2 [Engler &amp; Prantl] 21: 86. 1925</t>
         </is>
       </c>
       <c r="J450" t="b">
@@ -27412,7 +27412,7 @@
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
@@ -27422,7 +27422,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nat. Pflanzenfam., ed. 2 [Engler &amp; Prantl] 21: 85. 1925 </t>
+          <t>Nat. Pflanzenfam., ed. 2 [Engler &amp; Prantl] 21: 85. 1925</t>
         </is>
       </c>
       <c r="J451" t="b">
@@ -27490,7 +27490,7 @@
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
@@ -27500,7 +27500,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Sci. Nat., Bot. sér. 8, 16: 282. 1902 </t>
+          <t>Ann. Sci. Nat., Bot. sér. 8, 16: 282. 1902</t>
         </is>
       </c>
       <c r="J452" t="b">
@@ -27568,7 +27568,7 @@
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
@@ -27578,7 +27578,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 13: 350. 1936 </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 13: 350. 1936</t>
         </is>
       </c>
       <c r="J453" t="b">
@@ -27646,7 +27646,7 @@
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
@@ -27656,7 +27656,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Sci. Nat., Bot. sér. 8, 16: 223. 1902 </t>
+          <t>Ann. Sci. Nat., Bot. sér. 8, 16: 223. 1902</t>
         </is>
       </c>
       <c r="J454" t="b">
@@ -27724,7 +27724,7 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
@@ -27802,7 +27802,7 @@
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
@@ -27812,7 +27812,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Sci. Nat., Bot. sér. 8, 16: 223. 1902 </t>
+          <t>Ann. Sci. Nat., Bot. sér. 8, 16: 223. 1902</t>
         </is>
       </c>
       <c r="J456" t="b">
@@ -27880,7 +27880,7 @@
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H457" t="inlineStr">
@@ -27958,7 +27958,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H458" t="inlineStr">
@@ -27968,7 +27968,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Sci. Nat., Bot. sér. 8, 16: 224. 1902 </t>
+          <t>Ann. Sci. Nat., Bot. sér. 8, 16: 224. 1902</t>
         </is>
       </c>
       <c r="J458" t="b">
